--- a/biology/Histoire de la zoologie et de la botanique/Frank_Michler_Chapman/Frank_Michler_Chapman.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Frank_Michler_Chapman/Frank_Michler_Chapman.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Frank Michler Chapman est un naturaliste et ornithologue américain, né le 12 juin 1864 à West Englewood dans le New Jersey et mort le 15 novembre 1945 à New York.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fils de Lebbeus et Mary A. née Parkhurts. Autodidacte ornithologiste, il fait ses études à l’Englewood Academy. il est conservateur assistant au département de l’ornithologie et de la mammalogie de l’American Museum of Natural History de 1888 à 1908 sous Joel Asaph Allen (1838-1921), puis conservateur de l’ornithologie de 1908 à 1942 où il développe des expositions sur les oiseaux.
 Il se marie en 1898 avec Fannie Bates Embury dont il aura un fils. À partir de 1887, il commence à voyager régulièrement en Amérique tropicale et tempérée.
@@ -544,22 +558,24 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Visitors' guide to the local collection of birds in the American Museum of Natural History, New York City : with an annotated list of the birds known to occur within fifty miles of New York City (1894) ;
-Handbook of Birds of Eastern North America, with keys to the species, and descriptions of their plumages, nests, and eggs, their distribution and migrations[1] (1895) ;
-Bird-Life, a Guide to the Study of Our Common Birds[2] (1897) ;
-Bird studies with a camera : with introductory chapters on the outfit and methods of the bird photographer[3] (1900) ;
-Handbook of birds of eastern North America, with keys to the species and descriptions of their plumages, nests, and eggs[4] (1902) ;
+Handbook of Birds of Eastern North America, with keys to the species, and descriptions of their plumages, nests, and eggs, their distribution and migrations (1895) ;
+Bird-Life, a Guide to the Study of Our Common Birds (1897) ;
+Bird studies with a camera : with introductory chapters on the outfit and methods of the bird photographer (1900) ;
+Handbook of birds of eastern North America, with keys to the species and descriptions of their plumages, nests, and eggs (1902) ;
 A Color Key to North American Birds (1903) ;
 The Economic Value of Birds to the State (1903) ;
-The Warblers of North America[5] (1907) ;
-Camps and Cruises of an Ornithologist[6] (1908) ;
-Handbook of birds of eastern North America; with introductory chapters on the study of birds in nature[7] (1912) ;
-Color key to North American Birds, with bibliographical appendix[8] (1912) ;
-The Travels of Birds our birds and their journeys to strange lands[9] (1916) ;
+The Warblers of North America (1907) ;
+Camps and Cruises of an Ornithologist (1908) ;
+Handbook of birds of eastern North America; with introductory chapters on the study of birds in nature (1912) ;
+Color key to North American Birds, with bibliographical appendix (1912) ;
+The Travels of Birds our birds and their journeys to strange lands (1916) ;
 The Distribution of Bird-Life in Colombia (1917), Our Winter Birds (1918) ;
-Bird-life; a guide to the study of our common birds[10] (1919) ;
+Bird-life; a guide to the study of our common birds (1919) ;
 What Bird is That ? (1920) ;
 Birds of Urubamba Valley, Peru (1921) ;
 The Distribution of Bird-Life in Ecuador (1926) ;
@@ -595,7 +611,9 @@
           <t>Espèces éponymes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Plusieurs espèces d’oiseaux lui ont été dédiées :
 Le tyranneau de Chapman (Phylloscartes chapmani) par Ernest Thomas Gilliard (1912-1965) en 1940.
